--- a/data/trans_dic/CoTrAQ_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3740471357598322</v>
+        <v>0.368960616723246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3306041952626917</v>
+        <v>0.3285584595821863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5745597101548134</v>
+        <v>0.5654291425493393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3632695594725775</v>
+        <v>0.3708009163597041</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5074909998704107</v>
+        <v>0.5103676120611503</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3730781927700519</v>
+        <v>0.3804412498140505</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6132837167967446</v>
+        <v>0.6188065317911157</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5542450714154578</v>
+        <v>0.560889687999141</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7792229662609914</v>
+        <v>0.7688503964831385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5520706920940928</v>
+        <v>0.5660845801869505</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6698926041088786</v>
+        <v>0.6695547804862746</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5238068994561353</v>
+        <v>0.5383727122264025</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6337020053120811</v>
+        <v>0.633499438337665</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4523969269967744</v>
+        <v>0.4548235116204075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5903732002395242</v>
+        <v>0.6029514977610025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4496188496715892</v>
+        <v>0.454785233161901</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6342548030573449</v>
+        <v>0.6298181499970682</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4712543634018074</v>
+        <v>0.4729519471242466</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7330061260530153</v>
+        <v>0.7266999551330946</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.565616573768695</v>
+        <v>0.5653339887541099</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7127681348663124</v>
+        <v>0.7177926541079311</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5677856505355015</v>
+        <v>0.5717239451491513</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7071712548672526</v>
+        <v>0.711152640378355</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5507910002825233</v>
+        <v>0.5500252944125293</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6684400399454382</v>
+        <v>0.6685596297396975</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4960170103162655</v>
+        <v>0.4980348228415515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5610344263743587</v>
+        <v>0.5644886722406465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4703831302044348</v>
+        <v>0.4743550337543401</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6423258230811305</v>
+        <v>0.6429014719782413</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.500123414507884</v>
+        <v>0.4974608250583268</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7622444677617219</v>
+        <v>0.760783164166114</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5935174192793391</v>
+        <v>0.5923844916825031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6802303495965589</v>
+        <v>0.6879799694038737</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.578928132990487</v>
+        <v>0.5845967768680382</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7149806314479215</v>
+        <v>0.713168354390183</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.570277314496989</v>
+        <v>0.5689071777464593</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7081764218507366</v>
+        <v>0.7068908596953073</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5217485456326122</v>
+        <v>0.5227900388191088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5822422771105995</v>
+        <v>0.5878997236077873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4251084480121149</v>
+        <v>0.4211274567199997</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6771119924200202</v>
+        <v>0.6772532818258804</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5013025491140741</v>
+        <v>0.4984802888777929</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8016935956531736</v>
+        <v>0.8037988552560819</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6255823619402513</v>
+        <v>0.6354733278786264</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7310178352059292</v>
+        <v>0.7254799916239409</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.561217423332383</v>
+        <v>0.5577042038651516</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7586796729569205</v>
+        <v>0.7602972078836259</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5842815818569335</v>
+        <v>0.5828686724681302</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6753006658741469</v>
+        <v>0.6802173363881912</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4985540320325254</v>
+        <v>0.5148303698625525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5864582310131508</v>
+        <v>0.6073326505730464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3256042258868435</v>
+        <v>0.3362962754141956</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6865321050521779</v>
+        <v>0.6838054278811735</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4646482874260576</v>
+        <v>0.4640881422105658</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8173908366053521</v>
+        <v>0.8225343681776418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6651928337330386</v>
+        <v>0.6728080400508937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8335453716499271</v>
+        <v>0.8329866901603511</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5293188603401565</v>
+        <v>0.5405947834280992</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8126938080746282</v>
+        <v>0.8084375838186983</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5983551498323496</v>
+        <v>0.5945966801151799</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="22">
@@ -1274,22 +1274,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29207</v>
+        <v>28810</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26154</v>
+        <v>25992</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47652</v>
+        <v>46895</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33368</v>
+        <v>34060</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>81717</v>
+        <v>82180</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>63783</v>
+        <v>65042</v>
       </c>
     </row>
     <row r="7">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47888</v>
+        <v>48319</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>43846</v>
+        <v>44371</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64626</v>
+        <v>63766</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50710</v>
+        <v>51998</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>107867</v>
+        <v>107812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>89552</v>
+        <v>92042</v>
       </c>
     </row>
     <row r="8">
@@ -1382,22 +1382,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>237089</v>
+        <v>237013</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>155708</v>
+        <v>156543</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>156039</v>
+        <v>159363</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>123068</v>
+        <v>124482</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>404932</v>
+        <v>402100</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>291189</v>
+        <v>292238</v>
       </c>
     </row>
     <row r="11">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>274242</v>
+        <v>271882</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>194677</v>
+        <v>194579</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>188388</v>
+        <v>189716</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>155412</v>
+        <v>156490</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>451485</v>
+        <v>454027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>340335</v>
+        <v>339862</v>
       </c>
     </row>
     <row r="12">
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>274165</v>
+        <v>274214</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>227963</v>
+        <v>228891</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>154464</v>
+        <v>155415</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>149306</v>
+        <v>150567</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>440300</v>
+        <v>440694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>388596</v>
+        <v>386528</v>
       </c>
     </row>
     <row r="15">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>312640</v>
+        <v>312041</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>272773</v>
+        <v>272253</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>187281</v>
+        <v>189415</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>183760</v>
+        <v>185559</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>490103</v>
+        <v>488861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>443106</v>
+        <v>442041</v>
       </c>
     </row>
     <row r="16">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>254368</v>
+        <v>253906</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>191862</v>
+        <v>192245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>125116</v>
+        <v>126332</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>103352</v>
+        <v>102384</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>388713</v>
+        <v>388794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>306219</v>
+        <v>304495</v>
       </c>
     </row>
     <row r="19">
@@ -1624,22 +1624,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>287958</v>
+        <v>288714</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>230044</v>
+        <v>233681</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>157086</v>
+        <v>155896</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>136442</v>
+        <v>135588</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>435539</v>
+        <v>436468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>356906</v>
+        <v>356043</v>
       </c>
     </row>
     <row r="20">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>104209</v>
+        <v>104968</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>82623</v>
+        <v>85321</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37706</v>
+        <v>39048</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>34475</v>
+        <v>35607</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>150083</v>
+        <v>149487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>126201</v>
+        <v>126049</v>
       </c>
     </row>
     <row r="23">
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>126136</v>
+        <v>126929</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>110240</v>
+        <v>111502</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>53593</v>
+        <v>53557</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>56044</v>
+        <v>57238</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>177663</v>
+        <v>176733</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>162516</v>
+        <v>161495</v>
       </c>
     </row>
     <row r="24">
@@ -1814,22 +1814,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
     </row>
     <row r="27">
@@ -1840,22 +1840,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
     </row>
     <row r="28">
